--- a/docs/iiif/metadata/top.xlsx
+++ b/docs/iiif/metadata/top.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Title</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -434,6 +439,11 @@
           <t>東京大学史料編纂所・錦絵データベース</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://hi-viewer.web.app/mirador/?manifest=https://hi-ut.github.io/dataset/iiif/collection/nishikie.json</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
